--- a/biology/Zoologie/Formation_de_Bahariya/Formation_de_Bahariya.xlsx
+++ b/biology/Zoologie/Formation_de_Bahariya/Formation_de_Bahariya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La formation de Bahariya est une formation géologique située dans l'oasis du même nom au centre de l’Égypte[1]. Les sédiments y datent du Crétacé supérieur, il y a environ 95 millions d'années, au Cénomanien. La présence de fossiles de poissons osseux dans ces sédiments suggère un type d'habitat situé sur un estuaire de l'ancienne mer de Téthys. Il est formé de grès et de schistes intercalés.2 Le désert occidental d’Égypte est une zone riche en production d'hydrocarbures, avec des réserves estimées à 2700 MMBO dont la formation de Baharija est l'un des principales.
+La formation de Bahariya est une formation géologique située dans l'oasis du même nom au centre de l’Égypte. Les sédiments y datent du Crétacé supérieur, il y a environ 95 millions d'années, au Cénomanien. La présence de fossiles de poissons osseux dans ces sédiments suggère un type d'habitat situé sur un estuaire de l'ancienne mer de Téthys. Il est formé de grès et de schistes intercalés.2 Le désert occidental d’Égypte est une zone riche en production d'hydrocarbures, avec des réserves estimées à 2700 MMBO dont la formation de Baharija est l'un des principales.
 </t>
         </is>
       </c>
@@ -514,10 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lépidosauriens
-Sauropodes
-Restes de sauropodes indéterminés[1]
-Théropodes</t>
+          <t>Sauropodes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Restes de sauropodes indéterminés
+</t>
         </is>
       </c>
     </row>
